--- a/Application Bs4/Data/Calcule part cessionaire.xlsx
+++ b/Application Bs4/Data/Calcule part cessionaire.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Document SBR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARM-Ismail\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C299B29-727E-4941-B796-234288B6DED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="ZC-30-12-2022" sheetId="3" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="PPNA">Parametres!$B$5</definedName>
     <definedName name="RS_moy">Parametres!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -307,16 +306,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,11 +347,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -412,7 +413,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
@@ -420,11 +421,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -440,10 +441,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
@@ -456,19 +453,23 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7D1C8B6A-5003-47D5-B66F-06B779526C88}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -779,608 +780,608 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3C349F-53EF-4C61-A7EE-8098B2CF9945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="16" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="27" style="16" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="16" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="16"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="27" style="14" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="17" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="18">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="14">
         <v>3.0169999999999999E-2</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>3.0169999999999999E-2</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="18">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="14">
         <v>2</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>3.0339999999999999E-2</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>3.0339999999999999E-2</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="18">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
         <v>3</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="14">
         <v>3</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="14">
         <v>2.9659999999999999E-2</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>2.9680000000000002E-2</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="18">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
         <v>4</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>4</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="14">
         <v>2.9520000000000001E-2</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>2.954E-2</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="18">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>5</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>5</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>2.9749999999999999E-2</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>2.9749999999999999E-2</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="18">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>6</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>6</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="14">
         <v>2.9960000000000001E-2</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>2.9950000000000001E-2</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="18">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>7</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>7</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>3.041E-2</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>3.0360000000000002E-2</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="14" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="18">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
         <v>8</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>8</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="14">
         <v>3.1040000000000002E-2</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>3.0929999999999999E-2</v>
       </c>
-      <c r="F10" s="16" t="s">
+      <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="18">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
         <v>9</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>9</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>3.1600000000000003E-2</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>3.143E-2</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="18">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>10</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="14">
         <v>3.2050000000000002E-2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>3.1829999999999997E-2</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="14" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="18">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
         <v>11</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>11</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>3.2840000000000001E-2</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>3.2509999999999997E-2</v>
       </c>
-      <c r="F13" s="16" t="s">
+      <c r="F13" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="18">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
         <v>12</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>12</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="14">
         <v>3.3739999999999999E-2</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>3.3270000000000001E-2</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="18">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
         <v>13</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>13</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="14">
         <v>3.3399999999999999E-2</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>3.3029999999999997E-2</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="18">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>14</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>14</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>3.4340000000000002E-2</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>3.3790000000000001E-2</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="18">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
         <v>15</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>15</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="14">
         <v>3.4680000000000002E-2</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>3.4079999999999999E-2</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>16</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>16</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>3.5040000000000002E-2</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>3.4380000000000001E-2</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="18">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>17</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>17</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <v>3.5439999999999999E-2</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="18">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
         <v>18</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>18</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>3.5790000000000002E-2</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>3.4979999999999997E-2</v>
       </c>
-      <c r="F20" s="16" t="s">
+      <c r="F20" s="14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="18">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
         <v>19</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>19</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="14">
         <v>3.6049999999999999E-2</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>3.5189999999999999E-2</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="14" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="18">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
         <v>20</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>20</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="14">
         <v>3.6319999999999998E-2</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="18">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
         <v>21</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>21</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="14">
         <v>3.6589999999999998E-2</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>3.5610000000000003E-2</v>
       </c>
-      <c r="F23" s="16" t="s">
+      <c r="F23" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="18">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>22</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="14">
         <v>3.6880000000000003E-2</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>3.5830000000000001E-2</v>
       </c>
-      <c r="F24" s="16" t="s">
+      <c r="F24" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="18">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
         <v>23</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>23</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <v>3.7170000000000002E-2</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>3.6040000000000003E-2</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="18">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
         <v>24</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>24</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="14">
         <v>3.7659999999999999E-2</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>3.637E-2</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="18">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
         <v>25</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>25</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="14">
         <v>3.8330000000000003E-2</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="F27" s="16" t="s">
+      <c r="F27" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="18">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
         <v>26</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>26</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <v>3.9019999999999999E-2</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>3.7229999999999999E-2</v>
       </c>
-      <c r="F28" s="16" t="s">
+      <c r="F28" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="18">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
         <v>27</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>27</v>
       </c>
-      <c r="C29" s="16">
+      <c r="C29" s="14">
         <v>3.9739999999999998E-2</v>
       </c>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>3.7659999999999999E-2</v>
       </c>
-      <c r="F29" s="16" t="s">
+      <c r="F29" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="18">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
         <v>28</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>28</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <v>3.8580000000000003E-2</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>3.7069999999999999E-2</v>
       </c>
-      <c r="F30" s="16" t="s">
+      <c r="F30" s="14" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1393,16 +1394,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1438,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2012</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2013</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2016</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2017</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2018</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2019</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1911,21 +1912,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D556E3-E239-45F4-AA09-28A2BB6EB258}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" activeCellId="1" sqref="J1:J1048576 A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>6413.9599799999996</v>
       </c>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1955,16 +1956,16 @@
         <v>-845.37305000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
-      <c r="I4" s="22" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="30">
+      <c r="J4" s="28">
         <f>J2+J3</f>
         <v>5568.5869299999995</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2003,20 +2004,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{079486DE-93A0-4346-8A92-6A8A304A65B6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>1204.1497057300294</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -2128,213 +2129,213 @@
         <v>878.36111647303767</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="21">
-        <f>SUM(B4:K4)</f>
+      <c r="B5" s="19">
+        <f>SUM(B4:$K$4)</f>
         <v>213798.6663313508</v>
       </c>
-      <c r="C5" s="10">
-        <f>SUM(C4:K4)</f>
+      <c r="C5" s="19">
+        <f>SUM(C4:$K$4)</f>
         <v>146317.88853386216</v>
       </c>
-      <c r="D5" s="10">
-        <f t="shared" ref="D5" si="0">SUM(D4:M4)</f>
+      <c r="D5" s="19">
+        <f>SUM(D4:$K$4)</f>
         <v>95897.023623783418</v>
       </c>
-      <c r="E5" s="10">
-        <f t="shared" ref="E5" si="1">SUM(E4:M4)</f>
+      <c r="E5" s="19">
+        <f>SUM(E4:$K$4)</f>
         <v>60476.960817734427</v>
       </c>
-      <c r="F5" s="10">
-        <f t="shared" ref="F5" si="2">SUM(F4:O4)</f>
+      <c r="F5" s="19">
+        <f>SUM(F4:$K$4)</f>
         <v>36853.439113278655</v>
       </c>
-      <c r="G5" s="10">
-        <f t="shared" ref="G5" si="3">SUM(G4:O4)</f>
+      <c r="G5" s="19">
+        <f>SUM(G4:$K$4)</f>
         <v>21580.52599775917</v>
       </c>
-      <c r="H5" s="10">
-        <f t="shared" ref="H5" si="4">SUM(H4:Q4)</f>
+      <c r="H5" s="19">
+        <f>SUM(H4:$K$4)</f>
         <v>12205.635371000626</v>
       </c>
-      <c r="I5" s="10">
-        <f t="shared" ref="I5" si="5">SUM(I4:Q4)</f>
+      <c r="I5" s="19">
+        <f>SUM(I4:$K$4)</f>
         <v>6089.2511770368628</v>
       </c>
-      <c r="J5" s="10">
-        <f>SUM(J4:S4)</f>
+      <c r="J5" s="19">
+        <f>SUM(J4:$K$4)</f>
         <v>2726.3064751798288</v>
       </c>
-      <c r="K5" s="10">
-        <f t="shared" ref="K5" si="6">SUM(K4:S4)</f>
+      <c r="K5" s="19">
+        <f>SUM(K4:$K$4)</f>
         <v>878.36111647303767</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="19">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="17">
         <v>1</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="17">
         <v>2</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="17">
         <v>3</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="17">
         <v>4</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="17">
         <v>5</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="17">
         <v>6</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>7</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="17">
         <v>8</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="17">
         <v>9</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="17">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>0.212464208108432</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="18">
         <v>0.20000001546451437</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="18">
         <v>0.15995473782827838</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>0.11508961449326979</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="18">
         <v>8.8830024160995419E-2</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="18">
         <v>4.9963376634469231E-2</v>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <v>4.0690502894520718E-2</v>
       </c>
-      <c r="I8" s="20">
+      <c r="I8" s="18">
         <v>2.2113919956583256E-2</v>
       </c>
-      <c r="J8" s="20">
+      <c r="J8" s="18">
         <v>1.7002420300314951E-2</v>
       </c>
-      <c r="K8" s="20">
+      <c r="K8" s="18">
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <f>B8/((1+VLOOKUP(B7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^B7)</f>
         <v>0.20624189027872292</v>
       </c>
-      <c r="C9" s="20">
+      <c r="C9" s="18">
         <f>C8/((1+VLOOKUP(C7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^C7)</f>
         <v>0.1883947987265977</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="18">
         <f>D8/((1+VLOOKUP(D7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^D7)</f>
         <v>0.14652630001910913</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <f>E8/((1+VLOOKUP(E7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^E7)</f>
         <v>0.10244646654668516</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="18">
         <f>F8/((1+VLOOKUP(F7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^F7)</f>
         <v>7.6718619092898968E-2</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="18">
         <f>G8/((1+VLOOKUP(G7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^G7)</f>
         <v>4.1853292618877991E-2</v>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <f>H8/((1+VLOOKUP(H7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^H7)</f>
         <v>3.299306051985805E-2</v>
       </c>
-      <c r="I9" s="20">
+      <c r="I9" s="18">
         <f>I8/((1+VLOOKUP(I7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^I7)</f>
         <v>1.7316559842628098E-2</v>
       </c>
-      <c r="J9" s="20">
+      <c r="J9" s="18">
         <f>J8/((1+VLOOKUP(J7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^J7)</f>
         <v>1.2850166253894152E-2</v>
       </c>
-      <c r="K9" s="20">
+      <c r="K9" s="18">
         <f>K8/((1+VLOOKUP(K7,'ZC-30-12-2022'!$B$3:$C$30,2,0))^K7)</f>
         <v>1.1743246823828695E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <f>SUM(B9:$K$9)</f>
         <v>0.83708440072310086</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <f>SUM(C9:$K$9)</f>
         <v>0.630842510444378</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <f>SUM(D9:$K$9)</f>
         <v>0.44244771171778025</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <f>SUM(E9:$K$9)</f>
         <v>0.29592141169867109</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="18">
         <f>SUM(F9:$K$9)</f>
         <v>0.19347494515198593</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="18">
         <f>SUM(G9:$K$9)</f>
         <v>0.11675632605908699</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <f>SUM(H9:$K$9)</f>
         <v>7.4903033440209002E-2</v>
       </c>
-      <c r="I10" s="20">
+      <c r="I10" s="18">
         <f>SUM(I9:$K$9)</f>
         <v>4.1909972920350945E-2</v>
       </c>
-      <c r="J10" s="20">
+      <c r="J10" s="18">
         <f>SUM(J9:$K$9)</f>
         <v>2.4593413077722847E-2</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="18">
         <f>SUM(K9:$K$9)</f>
         <v>1.1743246823828695E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <f>RS_moy*(PPNA+PFP)*B10-Parametres!$B$8</f>
         <v>-16907.243385331443</v>
       </c>
@@ -2343,40 +2344,40 @@
         <v>11016.814562131629</v>
       </c>
       <c r="D11" s="10">
-        <f>RS_moy*(PPNA)*D10</f>
+        <f t="shared" ref="D11:K11" si="0">RS_moy*(PPNA)*D10</f>
         <v>7726.7532113532734</v>
       </c>
       <c r="E11" s="10">
-        <f>RS_moy*(PPNA)*E10</f>
+        <f t="shared" si="0"/>
         <v>5167.8687844799515</v>
       </c>
       <c r="F11" s="10">
-        <f>RS_moy*(PPNA)*F10</f>
+        <f t="shared" si="0"/>
         <v>3378.7792640298794</v>
       </c>
       <c r="G11" s="10">
-        <f>RS_moy*(PPNA)*G10</f>
+        <f t="shared" si="0"/>
         <v>2038.9919383249157</v>
       </c>
       <c r="H11" s="10">
-        <f>RS_moy*(PPNA)*H10</f>
+        <f t="shared" si="0"/>
         <v>1308.0805682715402</v>
       </c>
       <c r="I11" s="10">
-        <f>RS_moy*(PPNA)*I10</f>
+        <f t="shared" si="0"/>
         <v>731.90121515784301</v>
       </c>
       <c r="J11" s="10">
-        <f>RS_moy*(PPNA)*J10</f>
+        <f t="shared" si="0"/>
         <v>429.49082669828204</v>
       </c>
       <c r="K11" s="10">
-        <f>RS_moy*(PPNA)*K10</f>
+        <f t="shared" si="0"/>
         <v>205.07998505733062</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
         <v>81</v>
       </c>
       <c r="B13">
@@ -2420,119 +2421,119 @@
         <v>36.604832747057657</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="23">
         <f>0.5*MAX(B13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(B7-1)</f>
         <v>33.411586924043711</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="23">
         <f>0.5*MAX(C13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(C7-1)</f>
         <v>29.286557133077856</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <f>0.5*MAX(D13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(D7-1)</f>
         <v>19.11240189710157</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="23">
         <f>0.5*MAX(E13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(E7-1)</f>
         <v>11.993860848055464</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="23">
         <f>0.5*MAX(F13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(F7-1)</f>
         <v>7.2867392114564433</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="23">
         <f>0.5*MAX(G13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(G7-1)</f>
         <v>4.2328180131285995</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="23">
         <f>0.5*MAX(H13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(H7-1)</f>
         <v>2.4085034603840625</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="23">
         <f>0.5*MAX(I13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(I7-1)</f>
         <v>1.2090220483269387</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="23">
         <f>0.5*MAX(J13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(J7-1)</f>
         <v>0.56254159313650431</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="23">
         <f>0.5*MAX(K13,0)*Parametres!$B$11*(1-Parametres!$B$11)^(K7-1)</f>
         <v>0.19701630899331987</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="22">
         <f>B14/((1+VLOOKUP(B2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^B2)</f>
         <v>32.433080874072928</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="22">
         <f>C14/((1+VLOOKUP(C2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^C2)</f>
         <v>27.587173049294865</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="22">
         <f>D14/((1+VLOOKUP(D2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^D2)</f>
         <v>17.507887371657461</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="22">
         <f>E14/((1+VLOOKUP(E2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^E2)</f>
         <v>10.676277521181239</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <f>F14/((1+VLOOKUP(F2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^F2)</f>
         <v>6.293238972668016</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <f>G14/((1+VLOOKUP(G2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^G2)</f>
         <v>3.5457445601006468</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="22">
         <f>H14/((1+VLOOKUP(H2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^H2)</f>
         <v>1.9528856803939705</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="22">
         <f>I14/((1+VLOOKUP(I2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^I2)</f>
         <v>0.94673864660876694</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="22">
         <f>J14/((1+VLOOKUP(J2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^J2)</f>
         <v>0.42516023418152166</v>
       </c>
-      <c r="K15" s="24">
+      <c r="K15" s="22">
         <f>K14/((1+VLOOKUP(K2,'ZC-30-12-2022'!$B$3:$C$30,2,0))^K2)</f>
         <v>0.14371258349961977</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="29">
         <f>SUM(B15:K15)</f>
         <v>101.51189949365903</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="22" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="30">
+      <c r="B20" s="28">
         <f>'BE cedes'!J4-Adj!B16</f>
         <v>5467.0750305063402</v>
       </c>
@@ -2543,19 +2544,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C52F23-C8DC-490E-BF32-791E554BE078}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -2575,27 +2576,27 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="21">
         <v>1E-4</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="21">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>0.6985461112550051</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2644,11 +2645,11 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="26" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="25">
         <f>1.2%</f>
         <v>1.2E-2</v>
       </c>

--- a/Application Bs4/Data/Calcule part cessionaire.xlsx
+++ b/Application Bs4/Data/Calcule part cessionaire.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARM-Ismail\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EAE585-194B-364E-B43E-5BCF263D00BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZC-30-12-2022" sheetId="3" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="PPNA">Parametres!$B$5</definedName>
     <definedName name="RS_moy">Parametres!$B$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -306,7 +307,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -416,7 +417,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -455,10 +456,8 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
@@ -469,7 +468,7 @@
   <cellStyles count="3">
     <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -780,35 +779,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="14" customWidth="1"/>
     <col min="4" max="4" width="27" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="14"/>
+    <col min="5" max="5" width="18.83203125" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="11.5" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
@@ -825,7 +824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -845,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -865,7 +864,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -885,7 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -905,7 +904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -925,7 +924,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -945,7 +944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -965,7 +964,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -985,7 +984,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -1005,7 +1004,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1045,7 +1044,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1065,7 +1064,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -1205,7 +1204,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -1245,7 +1244,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -1285,7 +1284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -1325,7 +1324,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -1394,16 +1393,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1439,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2012</v>
       </c>
@@ -1477,7 +1476,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2013</v>
       </c>
@@ -1515,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -1553,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2016</v>
       </c>
@@ -1629,7 +1628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2017</v>
       </c>
@@ -1667,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2018</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2019</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -1781,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
@@ -1819,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
@@ -1857,7 +1856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1912,21 +1911,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" activeCellId="1" sqref="J1:J1048576 A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>6413.9599799999996</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1956,16 +1955,16 @@
         <v>-845.37305000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="I4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="26">
         <f>J2+J3</f>
         <v>5568.5869299999995</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1973,7 +1972,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1981,7 +1980,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1989,7 +1988,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2004,20 +2003,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2049,7 +2048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2084,7 +2083,7 @@
         <v>1204.1497057300294</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -2129,7 +2128,7 @@
         <v>878.36111647303767</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
@@ -2174,7 +2173,7 @@
         <v>878.36111647303767</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="17">
         <v>1</v>
       </c>
@@ -2206,7 +2205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -2241,7 +2240,7 @@
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -2286,7 +2285,7 @@
         <v>1.1743246823828695E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>1.1743246823828695E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2376,7 +2375,7 @@
         <v>205.07998505733062</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
         <v>81</v>
       </c>
@@ -2421,7 +2420,7 @@
         <v>36.604832747057657</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2466,8 +2465,8 @@
         <v>0.19701630899331987</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>85</v>
       </c>
       <c r="B15" s="22">
@@ -2511,11 +2510,11 @@
         <v>0.14371258349961977</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="27">
         <f>SUM(B15:K15)</f>
         <v>101.51189949365903</v>
       </c>
@@ -2529,11 +2528,11 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="26">
         <f>'BE cedes'!J4-Adj!B16</f>
         <v>5467.0750305063402</v>
       </c>
@@ -2544,19 +2543,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -2576,7 +2575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>0.6985461112550051</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -2629,7 +2628,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2636,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
         <v>84</v>
       </c>

--- a/Application Bs4/Data/Calcule part cessionaire.xlsx
+++ b/Application Bs4/Data/Calcule part cessionaire.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abdouloudoussdiakite/Desktop/PFE/Risk based solvency/Application Bs4/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Risk-based-solvency\Application Bs4\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EAE585-194B-364E-B43E-5BCF263D00BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72095EFC-B5C1-482A-8660-519E9D313A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20740" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZC-30-12-2022" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="BE cedes" sheetId="2" r:id="rId3"/>
     <sheet name="Adj" sheetId="4" r:id="rId4"/>
     <sheet name="Parametres" sheetId="5" r:id="rId5"/>
+    <sheet name="CSR SNV" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="PFP">Parametres!$B$6</definedName>
@@ -309,12 +310,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0000000_-;\-* #,##0.0000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -414,7 +415,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="30">
@@ -422,11 +423,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -448,18 +449,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -786,18 +787,18 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="21.5" style="14" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="14" customWidth="1"/>
     <col min="4" max="4" width="27" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="14" customWidth="1"/>
-    <col min="7" max="16384" width="11.5" style="14"/>
+    <col min="5" max="5" width="18.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" style="14" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
@@ -807,7 +808,7 @@
       <c r="E1" s="29"/>
       <c r="F1" s="29"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
@@ -824,7 +825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -844,7 +845,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
@@ -864,7 +865,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>3</v>
       </c>
@@ -884,7 +885,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>4</v>
       </c>
@@ -904,7 +905,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
@@ -924,7 +925,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
@@ -944,7 +945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>7</v>
       </c>
@@ -964,7 +965,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>8</v>
       </c>
@@ -984,7 +985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>9</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
@@ -1064,7 +1065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>13</v>
       </c>
@@ -1084,7 +1085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>14</v>
       </c>
@@ -1104,7 +1105,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>15</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
         <v>16</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
         <v>17</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16">
         <v>18</v>
       </c>
@@ -1184,7 +1185,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
         <v>19</v>
       </c>
@@ -1204,7 +1205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
@@ -1224,7 +1225,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
         <v>21</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
         <v>22</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>23</v>
       </c>
@@ -1284,7 +1285,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
         <v>24</v>
       </c>
@@ -1304,7 +1305,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
         <v>25</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
         <v>26</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
         <v>27</v>
       </c>
@@ -1364,7 +1365,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16">
         <v>28</v>
       </c>
@@ -1400,9 +1401,9 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2">
         <v>0</v>
@@ -1438,7 +1439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2012</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>69073.142739999996</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2013</v>
       </c>
@@ -1514,7 +1515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -1552,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2015</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>2016</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2017</v>
       </c>
@@ -1666,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>2018</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2019</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2020</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2021</v>
       </c>
@@ -1818,7 +1819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2022</v>
       </c>
@@ -1856,7 +1857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1914,18 +1915,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>6413.9599799999996</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1955,7 +1956,7 @@
         <v>-845.37305000000003</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="I4" s="20" t="s">
         <v>87</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>5568.5869299999995</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1980,7 +1981,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2007,16 +2008,16 @@
   <dimension ref="A2:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>1204.1497057300294</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>878.36111647303767</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>878.36111647303767</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <v>1</v>
       </c>
@@ -2205,7 +2206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>73</v>
       </c>
@@ -2240,7 +2241,7 @@
         <v>1.609887658052141E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>77</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>1.1743246823828695E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>78</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>1.1743246823828695E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>82</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>205.07998505733062</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
         <v>81</v>
       </c>
@@ -2420,7 +2421,7 @@
         <v>36.604832747057657</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2465,7 +2466,7 @@
         <v>0.19701630899331987</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>0.14371258349961977</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
         <v>86</v>
       </c>
@@ -2528,7 +2529,7 @@
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
         <v>88</v>
       </c>
@@ -2547,15 +2548,15 @@
   <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
@@ -2595,7 +2596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>74</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>80</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>0.6985461112550051</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>79</v>
       </c>
@@ -2628,7 +2629,7 @@
         <v>90000</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -2636,7 +2637,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>84</v>
       </c>
@@ -2656,4 +2657,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF139B3-3999-4C47-9F93-DF751F7AC7CF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>